--- a/src/main/resources/templates/allpeople.xlsx
+++ b/src/main/resources/templates/allpeople.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fengtoos\idea_place\poverty\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860829E-5692-4FFA-9BEB-EAAEB494441B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="铜川市" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">铜川市!$A$1:$BR$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">铜川市!$A$1:$BR$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -283,285 +277,221 @@
   </si>
   <si>
     <t>{.pid}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.district}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.township}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.host}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.name}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.idCard}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.torfHost}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.hostId}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.relationship}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.population}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.torfLabor}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.laborNumber}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.movedOut}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.moveIn}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.arrangement}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.resettlementPoint}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.torfPoor}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.education}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.stateOfHealths{</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.laborSkills}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.causePoverty}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.averageIncome}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.phone]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.phone}</t>
   </si>
   <si>
     <t>{.remarks}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.houseArea}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.poorTime}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.torfLive}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.specificAddr}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.torfDismantle}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.outsideProvince}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.withinCounty}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.outsideCounty}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.communityDriven}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.publicWelfare}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.entrepreneurship}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.agriculture}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.estimatedIncome}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.reason}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.employmentTrainingTime}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.employmentTrainingContent}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.vocationalTrainingTime}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.vocationalTrainingContent}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.entrepreneurshipTrainingTime}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.entrepreneurshipTrainingContent}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.development}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.yearIncrease}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.businessEntity}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.drivingMethod}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.driveIncome}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.ndustryAwards}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.policySubsidies}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.agriculturalTraining}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.agriculturalContent}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.relocationAllowance}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.educationGuaranteeSchool}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.typeSubsidy}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.educationGrantAmount}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.ncmsReduction}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.reimbursementCombinedTherapy}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.linCompensation}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.rangerCompensation}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.loanAmount}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.industryTypeScale}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.pensionIncome}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.oldAgeAllowance}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.disabilityAllowance}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.pocketType}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{.pocketAmount}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +536,164 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,31 +703,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,12 +713,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -676,12 +927,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,64 +1218,108 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1040,124 +1577,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD2" sqref="BD2:BR2"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.37962962962963" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.62962962962963" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.62962962962963" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="27.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="7" customWidth="1"/>
-    <col min="18" max="19" width="8.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.62962962962963" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.3796296296296" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.6296296296296" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.62962962962963" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.3796296296296" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7.12962962962963" style="10" customWidth="1"/>
+    <col min="13" max="13" width="27.1296296296296" style="4" customWidth="1"/>
+    <col min="14" max="14" width="26.8796296296296" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.3796296296296" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.62962962962963" style="7" customWidth="1"/>
+    <col min="18" max="19" width="8.62962962962963" style="5" customWidth="1"/>
     <col min="20" max="20" width="10" style="5" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8.62962962962963" style="5" customWidth="1"/>
     <col min="22" max="22" width="11.5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="12.625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="22.375" style="5" customWidth="1"/>
-    <col min="25" max="25" width="28.125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="16.875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="12.6296296296296" style="5" customWidth="1"/>
+    <col min="24" max="24" width="22.3796296296296" style="5" customWidth="1"/>
+    <col min="25" max="25" width="28.1296296296296" style="11" customWidth="1"/>
+    <col min="26" max="26" width="16.8796296296296" style="12" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="11" customWidth="1"/>
-    <col min="29" max="29" width="13.875" customWidth="1"/>
-    <col min="30" max="30" width="25.875" style="11" customWidth="1"/>
+    <col min="29" max="29" width="13.8796296296296" customWidth="1"/>
+    <col min="30" max="30" width="25.8796296296296" style="11" customWidth="1"/>
     <col min="31" max="31" width="15.75" customWidth="1"/>
-    <col min="32" max="33" width="17.125" style="5" customWidth="1"/>
+    <col min="32" max="33" width="17.1296296296296" style="5" customWidth="1"/>
     <col min="34" max="34" width="17.25" style="5" customWidth="1"/>
-    <col min="35" max="35" width="17.375" style="5" customWidth="1"/>
-    <col min="36" max="38" width="8.625" style="5" customWidth="1"/>
-    <col min="39" max="39" width="10.625" style="10" customWidth="1"/>
-    <col min="40" max="40" width="13.375" style="10" customWidth="1"/>
-    <col min="41" max="41" width="17.375" style="5" customWidth="1"/>
+    <col min="35" max="35" width="17.3796296296296" style="5" customWidth="1"/>
+    <col min="36" max="38" width="8.62962962962963" style="5" customWidth="1"/>
+    <col min="39" max="39" width="10.6296296296296" style="10" customWidth="1"/>
+    <col min="40" max="40" width="13.3796296296296" style="10" customWidth="1"/>
+    <col min="41" max="41" width="17.3796296296296" style="5" customWidth="1"/>
     <col min="42" max="42" width="17.5" style="5" customWidth="1"/>
     <col min="43" max="44" width="17.25" style="5" customWidth="1"/>
-    <col min="45" max="45" width="17.125" style="5" customWidth="1"/>
+    <col min="45" max="45" width="17.1296296296296" style="5" customWidth="1"/>
     <col min="46" max="46" width="17" style="5" customWidth="1"/>
     <col min="47" max="47" width="23" style="5" customWidth="1"/>
-    <col min="48" max="48" width="12.125" style="5" customWidth="1"/>
-    <col min="49" max="49" width="19.875" style="5" customWidth="1"/>
+    <col min="48" max="48" width="12.1296296296296" style="5" customWidth="1"/>
+    <col min="49" max="49" width="19.8796296296296" style="5" customWidth="1"/>
     <col min="50" max="50" width="12.5" style="5" customWidth="1"/>
-    <col min="51" max="51" width="12.125" style="5" customWidth="1"/>
-    <col min="52" max="52" width="13.375" style="10" customWidth="1"/>
-    <col min="53" max="53" width="11.125" style="10" customWidth="1"/>
-    <col min="54" max="54" width="16.875" style="10" customWidth="1"/>
+    <col min="51" max="51" width="12.1296296296296" style="5" customWidth="1"/>
+    <col min="52" max="52" width="13.3796296296296" style="10" customWidth="1"/>
+    <col min="53" max="53" width="11.1296296296296" style="10" customWidth="1"/>
+    <col min="54" max="54" width="16.8796296296296" style="10" customWidth="1"/>
     <col min="55" max="55" width="17" style="10" customWidth="1"/>
-    <col min="56" max="56" width="8.625" style="5" customWidth="1"/>
+    <col min="56" max="56" width="8.62962962962963" style="5" customWidth="1"/>
     <col min="57" max="57" width="25.75" style="10" customWidth="1"/>
     <col min="58" max="58" width="11" style="10" customWidth="1"/>
-    <col min="59" max="59" width="11.875" style="10" customWidth="1"/>
-    <col min="60" max="60" width="13.125" style="10" customWidth="1"/>
+    <col min="59" max="59" width="11.8796296296296" style="10" customWidth="1"/>
+    <col min="60" max="60" width="13.1296296296296" style="10" customWidth="1"/>
     <col min="61" max="61" width="13.25" style="10" customWidth="1"/>
-    <col min="62" max="62" width="12.875" style="5" customWidth="1"/>
-    <col min="63" max="63" width="13.625" style="5" customWidth="1"/>
-    <col min="64" max="64" width="24.125" style="10" customWidth="1"/>
-    <col min="65" max="65" width="17.875" style="10" customWidth="1"/>
-    <col min="66" max="67" width="13.125" style="10" customWidth="1"/>
+    <col min="62" max="62" width="12.8796296296296" style="5" customWidth="1"/>
+    <col min="63" max="63" width="13.6296296296296" style="5" customWidth="1"/>
+    <col min="64" max="64" width="24.1296296296296" style="10" customWidth="1"/>
+    <col min="65" max="65" width="17.8796296296296" style="10" customWidth="1"/>
+    <col min="66" max="67" width="13.1296296296296" style="10" customWidth="1"/>
     <col min="68" max="68" width="13.5" style="10" customWidth="1"/>
     <col min="69" max="69" width="11.75" style="10" customWidth="1"/>
     <col min="70" max="70" width="13.25" style="10" customWidth="1"/>
     <col min="71" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="1" customFormat="1" ht="216" customHeight="1" spans="1:70">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
       <c r="AF1" s="24"/>
       <c r="AG1" s="24"/>
       <c r="AH1" s="24"/>
@@ -1173,543 +1711,545 @@
       <c r="AR1" s="24"/>
       <c r="AS1" s="24"/>
       <c r="AT1" s="24"/>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="22" t="s">
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22"/>
-      <c r="BR1" s="22"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
     </row>
-    <row r="2" spans="1:70" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:70">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="20" t="s">
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="21" t="s">
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="20" t="s">
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
     </row>
-    <row r="3" spans="1:70" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="3" customFormat="1" ht="41.4" spans="1:70">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AF3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AH3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AI3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AL3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AM3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AN3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AO3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="13" t="s">
+      <c r="AP3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AQ3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AR3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AS3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="13" t="s">
+      <c r="AT3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AU3" s="13" t="s">
+      <c r="AU3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="13" t="s">
+      <c r="AV3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AW3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="AX3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY3" s="13" t="s">
+      <c r="AY3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="13" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="13" t="s">
+      <c r="BA3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="13" t="s">
+      <c r="BB3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="13" t="s">
+      <c r="BC3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="13" t="s">
+      <c r="BD3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BE3" s="13" t="s">
+      <c r="BE3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BF3" s="13" t="s">
+      <c r="BF3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BG3" s="13" t="s">
+      <c r="BG3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="BH3" s="13" t="s">
+      <c r="BH3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="BI3" s="13" t="s">
+      <c r="BI3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="BJ3" s="13" t="s">
+      <c r="BJ3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="BK3" s="13" t="s">
+      <c r="BK3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="BL3" s="13" t="s">
+      <c r="BL3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="BM3" s="13" t="s">
+      <c r="BM3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BN3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="BO3" s="13" t="s">
+      <c r="BO3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="BP3" s="13" t="s">
+      <c r="BP3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BQ3" s="13" t="s">
+      <c r="BQ3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BR3" s="13" t="s">
+      <c r="BR3" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:70" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" ht="41.4" spans="1:70">
+      <c r="A4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="Z4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AD4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AK4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AL4" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="AM4" s="26" t="s">
+      <c r="AM4" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AO4" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AP4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="AQ4" s="15" t="s">
+      <c r="AQ4" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="AR4" s="15" t="s">
+      <c r="AR4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="AS4" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AT4" s="15" t="s">
+      <c r="AT4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AU4" s="15" t="s">
+      <c r="AU4" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AV4" s="15" t="s">
+      <c r="AV4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="AW4" s="15" t="s">
+      <c r="AW4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AZ4" s="26" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="BA4" s="26" t="s">
+      <c r="BA4" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="BB4" s="26" t="s">
+      <c r="BB4" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="BC4" s="26" t="s">
+      <c r="BC4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="BD4" s="15" t="s">
+      <c r="BD4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="BE4" s="26" t="s">
+      <c r="BE4" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="BF4" s="26" t="s">
+      <c r="BF4" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="BG4" s="26" t="s">
+      <c r="BG4" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="BH4" s="26" t="s">
+      <c r="BH4" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="BI4" s="26" t="s">
+      <c r="BI4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="15" t="s">
+      <c r="BJ4" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="BK4" s="15" t="s">
+      <c r="BK4" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="BL4" s="26" t="s">
+      <c r="BL4" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="BM4" s="26" t="s">
+      <c r="BM4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="BN4" s="26" t="s">
+      <c r="BN4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="BO4" s="26" t="s">
+      <c r="BO4" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="BP4" s="26" t="s">
+      <c r="BP4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="BQ4" s="26" t="s">
+      <c r="BQ4" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="BR4" s="26" t="s">
+      <c r="BR4" s="23" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BR3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BR4">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="Y1:AE1"/>
@@ -1722,28 +2262,28 @@
     <mergeCell ref="AU2:BC2"/>
     <mergeCell ref="BD2:BR2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5:AB1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z1048576">
+      <formula1>0</formula1>
+      <formula2>999999999999999</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5:Y1048576">
+      <formula1>0</formula1>
+      <formula2>99999999999999</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5:AB1048576">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE5:AE1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5:AA1048576 AC5:AC1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE5:AE1048576">
       <formula1>"是,否,无房户"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>0</formula1>
-      <formula2>999999999999999</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5:Y1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>0</formula1>
-      <formula2>99999999999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5:AA1048576 AC5:AC1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>